--- a/GPR/results_g/virtual_samples_RationalQuadratic.xlsx
+++ b/GPR/results_g/virtual_samples_RationalQuadratic.xlsx
@@ -458,7 +458,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.411135244087558</v>
+        <v>0.4111352457473887</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>1.305852742068167</v>
+        <v>1.305852743728515</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.818350117685454</v>
+        <v>-1.818350117545491</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6832930603082539</v>
+        <v>-0.6832930610423522</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4224419087387288</v>
+        <v>0.4224419076732046</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.008155638361386</v>
+        <v>-3.00815563884517</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7510371504084061</v>
+        <v>0.7510371499716741</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6202478911979101</v>
+        <v>-0.6202478913469014</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>2.150950078921925</v>
+        <v>2.150950079109846</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>4.585043061673178</v>
+        <v>4.58504306206815</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.154817520333831</v>
+        <v>-4.154817520822828</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.011376012418996</v>
+        <v>-1.011376012765258</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.413409083030887</v>
+        <v>2.413409083086634</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>3.656524032952245</v>
+        <v>3.656524033226816</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>4.662626004053339</v>
+        <v>4.662626004438948</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5490354493310561</v>
+        <v>-0.5490354480516126</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3747012941442896</v>
+        <v>0.3747012949838275</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2.402711586738496</v>
+        <v>2.402711587020612</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>1.205721663058673</v>
+        <v>1.205721662508995</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5187556562609397</v>
+        <v>0.5187556551890953</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>-1.5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1480378953044282</v>
+        <v>0.1480378959014635</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>-1.5</v>
       </c>
       <c r="C23" t="n">
-        <v>1.261676979477249</v>
+        <v>1.261676981873162</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>-1.5</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.991263903734612</v>
+        <v>-2.991263901483024</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>-1.5</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.745248529173427</v>
+        <v>-1.745248529162261</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>-1.5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04166134758823886</v>
+        <v>0.04166134748151107</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.8344724265152916</v>
+        <v>-0.834472426686294</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2290074627926342</v>
+        <v>0.2290074621177288</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5046887028899651</v>
+        <v>0.5046887021881613</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>1.677517934502339</v>
+        <v>1.677517934485783</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>1.113573534427652</v>
+        <v>1.113573534485998</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.111582101425435</v>
+        <v>-1.111582101596788</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.530022086128011</v>
+        <v>-1.530022086523034</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>1.932033636450086</v>
+        <v>1.932033636714367</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>2.963983803840273</v>
+        <v>2.963983804215397</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>1.139716588889162</v>
+        <v>1.139716588957481</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>1.5</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.04362517474063066</v>
+        <v>-0.04362517427490198</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>1.5</v>
       </c>
       <c r="C38" t="n">
-        <v>1.741251958938845</v>
+        <v>1.741251959830283</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>1.5</v>
       </c>
       <c r="C39" t="n">
-        <v>5.373166555973203</v>
+        <v>5.373166555182445</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>1.5</v>
       </c>
       <c r="C40" t="n">
-        <v>2.1976915400829</v>
+        <v>2.197691539122889</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>1.5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1948604817199314</v>
+        <v>0.1948604815340851</v>
       </c>
     </row>
   </sheetData>
